--- a/exampleProblems/beta-lapachone/beta-lapachone.xlsx
+++ b/exampleProblems/beta-lapachone/beta-lapachone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vsmw51/Library/CloudStorage/OneDrive-DurhamUniversity/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/beta-lapachone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/beta-lapachone/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2B50E3-4DDC-684B-882D-2D5FA55C9FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="28800" windowHeight="16180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -609,11 +609,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
   </cols>
@@ -644,12 +644,12 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -703,7 +703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -730,7 +730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -757,7 +757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -786,7 +786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -813,7 +813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -840,7 +840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -867,7 +867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -878,7 +878,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -889,7 +889,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -900,7 +900,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -911,7 +911,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -980,9 +980,9 @@
       <selection sqref="A1:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>8</v>
@@ -1009,7 +1009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1059,7 +1059,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1084,7 +1084,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1134,7 +1134,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1184,7 +1184,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1209,7 +1209,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1234,7 +1234,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1284,7 +1284,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1309,7 +1309,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="17">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1334,7 +1334,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="17">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1359,7 +1359,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="17">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1417,9 +1417,9 @@
       <selection sqref="A1:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="17">
+    <row r="1" spans="1:22" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -1463,7 +1463,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" ht="17">
+    <row r="2" spans="1:22" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="17">
+    <row r="3" spans="1:22" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" ht="17">
+    <row r="4" spans="1:22" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" ht="17">
+    <row r="5" spans="1:22" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" ht="17">
+    <row r="6" spans="1:22" ht="16.5">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1610,7 +1610,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" ht="17">
+    <row r="7" spans="1:22" ht="16.5">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1625,7 +1625,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="17">
+    <row r="8" spans="1:22" ht="16.5">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1640,7 +1640,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="17">
+    <row r="9" spans="1:22" ht="16.5">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1655,7 +1655,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="17">
+    <row r="10" spans="1:22" ht="16.5">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1670,7 +1670,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="17">
+    <row r="11" spans="1:22" ht="16.5">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1685,7 +1685,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="17">
+    <row r="12" spans="1:22" ht="16.5">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1996,13 +1996,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="17">
+    <row r="1" spans="1:13" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -2035,7 +2035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17">
+    <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="K2" s="10"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="17">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2099,7 +2099,7 @@
       <c r="K3" s="10"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="17">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2131,7 +2131,7 @@
       <c r="K4" s="10"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="17">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="K5" s="10"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="17">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="17">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="K7" s="10"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="17">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="K8" s="10"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="17">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -2272,7 +2272,7 @@
       <c r="K9" s="11"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="17">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2286,7 +2286,7 @@
       <c r="K10" s="11"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="17">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -2300,7 +2300,7 @@
       <c r="K11" s="11"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="17">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -2314,7 +2314,7 @@
       <c r="K12" s="11"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="17">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2365,9 +2365,9 @@
       <selection sqref="A1:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="17">
+    <row r="1" spans="1:22" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="L1" s="11"/>
     </row>
-    <row r="2" spans="1:22" ht="17">
+    <row r="2" spans="1:22" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
     </row>
-    <row r="3" spans="1:22" ht="17">
+    <row r="3" spans="1:22" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2467,7 +2467,7 @@
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
     </row>
-    <row r="4" spans="1:22" ht="17">
+    <row r="4" spans="1:22" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
     </row>
-    <row r="5" spans="1:22" ht="17">
+    <row r="5" spans="1:22" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2533,7 +2533,7 @@
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
     </row>
-    <row r="6" spans="1:22" ht="17">
+    <row r="6" spans="1:22" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2566,7 +2566,7 @@
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
     </row>
-    <row r="7" spans="1:22" ht="17">
+    <row r="7" spans="1:22" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2599,7 +2599,7 @@
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
     </row>
-    <row r="8" spans="1:22" ht="17">
+    <row r="8" spans="1:22" ht="16.5">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -2632,7 +2632,7 @@
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
     </row>
-    <row r="9" spans="1:22" ht="17">
+    <row r="9" spans="1:22" ht="16.5">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2665,7 +2665,7 @@
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
     </row>
-    <row r="10" spans="1:22" ht="17">
+    <row r="10" spans="1:22" ht="16.5">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -2698,7 +2698,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
     </row>
-    <row r="11" spans="1:22" ht="17">
+    <row r="11" spans="1:22" ht="16.5">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -2731,7 +2731,7 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
     </row>
-    <row r="12" spans="1:22" ht="17">
+    <row r="12" spans="1:22" ht="16.5">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -2764,7 +2764,7 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
     </row>
-    <row r="13" spans="1:22" ht="17">
+    <row r="13" spans="1:22" ht="16.5">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -2797,7 +2797,7 @@
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
     </row>
-    <row r="14" spans="1:22" ht="17">
+    <row r="14" spans="1:22" ht="16.5">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -2830,7 +2830,7 @@
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
     </row>
-    <row r="15" spans="1:22" ht="17">
+    <row r="15" spans="1:22" ht="16.5">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -2863,7 +2863,7 @@
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
     </row>
-    <row r="16" spans="1:22" ht="17">
+    <row r="16" spans="1:22" ht="16.5">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -2896,7 +2896,7 @@
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
     </row>
-    <row r="17" spans="1:22" ht="17">
+    <row r="17" spans="1:22" ht="16.5">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -2929,7 +2929,7 @@
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
     </row>
-    <row r="18" spans="1:22" ht="17">
+    <row r="18" spans="1:22" ht="16.5">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
     </row>
-    <row r="19" spans="1:22" ht="17">
+    <row r="19" spans="1:22" ht="16.5">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -2995,7 +2995,7 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
     </row>
-    <row r="20" spans="1:22" ht="17">
+    <row r="20" spans="1:22" ht="16.5">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
     </row>
-    <row r="21" spans="1:22" ht="17">
+    <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -3068,7 +3068,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:22" ht="17">
+    <row r="22" spans="1:22" ht="16.5">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -3099,7 +3099,7 @@
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:22" ht="17">
+    <row r="23" spans="1:22" ht="16.5">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -3130,7 +3130,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:22" ht="17">
+    <row r="24" spans="1:22" ht="16.5">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -3143,7 +3143,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:22" ht="17">
+    <row r="25" spans="1:22" ht="16.5">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -3156,7 +3156,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:22" ht="17">
+    <row r="26" spans="1:22" ht="16.5">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -3169,7 +3169,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:22" ht="17">
+    <row r="27" spans="1:22" ht="16.5">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -3182,7 +3182,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:22" ht="17">
+    <row r="28" spans="1:22" ht="16.5">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -3195,7 +3195,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
     </row>
-    <row r="29" spans="1:22" ht="17">
+    <row r="29" spans="1:22" ht="16.5">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -3208,7 +3208,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:22" ht="17">
+    <row r="30" spans="1:22" ht="16.5">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -3221,7 +3221,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
     </row>
-    <row r="31" spans="1:22" ht="17">
+    <row r="31" spans="1:22" ht="16.5">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -3234,7 +3234,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
     </row>
-    <row r="32" spans="1:22" ht="17">
+    <row r="32" spans="1:22" ht="16.5">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3247,7 +3247,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" ht="17">
+    <row r="33" spans="1:11" ht="16.5">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -3260,7 +3260,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" ht="17">
+    <row r="34" spans="1:11" ht="16.5">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -3273,7 +3273,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" ht="17">
+    <row r="35" spans="1:11" ht="16.5">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -3286,7 +3286,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" ht="17">
+    <row r="36" spans="1:11" ht="16.5">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -3299,7 +3299,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" ht="17">
+    <row r="37" spans="1:11" ht="16.5">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -3312,7 +3312,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11" ht="17">
+    <row r="38" spans="1:11" ht="16.5">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -3485,9 +3485,9 @@
       <selection activeCell="I14" sqref="A2:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="5"/>
       <c r="B2" s="11"/>
       <c r="C2" s="1"/>
@@ -3525,7 +3525,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="5"/>
       <c r="B3" s="11"/>
       <c r="C3" s="1"/>
@@ -3536,7 +3536,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="5"/>
       <c r="B4" s="11"/>
       <c r="C4" s="1"/>
@@ -3547,7 +3547,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="5"/>
       <c r="B5" s="11"/>
       <c r="C5" s="1"/>
@@ -3558,7 +3558,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="5"/>
       <c r="B6" s="11"/>
       <c r="C6" s="1"/>
@@ -3569,7 +3569,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="5"/>
       <c r="B7" s="11"/>
       <c r="C7" s="1"/>
@@ -3580,7 +3580,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="5"/>
       <c r="B8" s="11"/>
       <c r="C8" s="1"/>
@@ -3591,7 +3591,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="5"/>
       <c r="B9" s="11"/>
       <c r="C9" s="1"/>
@@ -3602,7 +3602,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="5"/>
       <c r="B10" s="11"/>
       <c r="C10" s="1"/>
@@ -3613,7 +3613,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="5"/>
       <c r="B11" s="11"/>
       <c r="C11" s="1"/>
@@ -3624,7 +3624,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="5"/>
       <c r="B12" s="11"/>
       <c r="C12" s="1"/>
@@ -3635,7 +3635,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="5"/>
       <c r="B13" s="11"/>
       <c r="C13" s="1"/>
@@ -3646,7 +3646,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="17">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="7"/>
       <c r="B14" s="11"/>
       <c r="C14" s="1"/>
@@ -3670,7 +3670,7 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="12"/>
@@ -3711,6 +3711,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -3927,36 +3942,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3979,9 +3968,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>